--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="264" windowWidth="14340" windowHeight="4272" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="270" windowWidth="14340" windowHeight="4275" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -154,9 +159,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -170,12 +172,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,6 +398,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -440,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +481,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,6 +533,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,15 +732,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -726,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -740,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -754,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -782,16 +824,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -839,7 +881,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -861,7 +903,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -883,7 +925,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -905,7 +947,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -944,22 +986,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
@@ -1000,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
@@ -1008,7 +1050,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>17</v>
@@ -1017,25 +1059,25 @@
         <v>43</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>42</v>
       </c>
@@ -1043,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>17</v>
@@ -1052,25 +1094,25 @@
         <v>43</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>42</v>
       </c>
@@ -1078,7 +1120,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>17</v>
@@ -1087,25 +1129,25 @@
         <v>43</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>42</v>
       </c>
@@ -1113,7 +1155,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>17</v>
@@ -1122,25 +1164,25 @@
         <v>43</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>42</v>
       </c>
@@ -1148,7 +1190,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>17</v>
@@ -1157,19 +1199,19 @@
         <v>43</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>4</v>
@@ -1184,21 +1226,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1289,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>17</v>
@@ -1256,19 +1298,19 @@
         <v>43</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="270" windowWidth="14340" windowHeight="4275" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="276" windowWidth="14340" windowHeight="4272" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -87,21 +82,6 @@
     <t>ProcessPayrollForWeeklyTax</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
     <t>470L</t>
   </si>
   <si>
@@ -150,9 +130,6 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER</t>
-  </si>
-  <si>
     <t>Week-1</t>
   </si>
   <si>
@@ -171,16 +148,34 @@
     <t>3</t>
   </si>
   <si>
-    <t>Weekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 380</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 381</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 382</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 383</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 384</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO 2040W EMPLOYER</t>
+  </si>
+  <si>
+    <t>2040W_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,10 +190,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -295,11 +292,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -308,9 +306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,18 +313,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,8 +370,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -448,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,26 +466,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,23 +501,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,15 +683,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,13 +707,13 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -782,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -796,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -820,20 +771,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,115 +810,115 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>6240</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>78032.759999999995</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>156560.04</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D6" s="5">
+        <v>260000</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
-        <v>260000</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -986,238 +937,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="K1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="F2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K2" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="B4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="I4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="B6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="26" t="s">
+      <c r="I6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2:A6" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1226,50 +1180,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -1281,42 +1235,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>